--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1415.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1415.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.46804870553999</v>
+        <v>1.202003359794617</v>
       </c>
       <c r="B1">
-        <v>2.006110721068437</v>
+        <v>1.284418106079102</v>
       </c>
       <c r="C1">
-        <v>2.284128990375352</v>
+        <v>6.883109092712402</v>
       </c>
       <c r="D1">
-        <v>2.61367772189028</v>
+        <v>2.156526327133179</v>
       </c>
       <c r="E1">
-        <v>3.311312496064733</v>
+        <v>1.160950064659119</v>
       </c>
     </row>
   </sheetData>
